--- a/venv/alanlistesi.xlsx
+++ b/venv/alanlistesi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girisken\PycharmProjects\front&amp;backend\venv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girisken\Desktop\front&amp;backend\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB848310-361B-40EF-9992-807C39C26956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7FB517-5544-4D32-B375-6697ADF10014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1410" windowWidth="23130" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Başlık</t>
   </si>
@@ -42,23 +42,26 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Anket Adı</t>
-  </si>
-  <si>
-    <t>Eğitim Adı</t>
-  </si>
-  <si>
-    <t>EGT_EGITIM_ANKET_BAGLANTI.EGITIM_ID</t>
-  </si>
-  <si>
-    <t>EGT_EGITIM_ANKET_BAGLANTI.ANKET_ID</t>
+    <t>Combobox</t>
+  </si>
+  <si>
+    <t>Bordro Türü</t>
+  </si>
+  <si>
+    <t>PER_DIGER_BORDRO_YARDIM.BORDRO_TURU</t>
+  </si>
+  <si>
+    <t>YARDIM TÜRÜ</t>
+  </si>
+  <si>
+    <t>PER_DIGER_BORDRO_YARDIM.YARDIM_TURU_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +95,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="162"/>
     </font>
     <font>
@@ -205,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -216,17 +234,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +538,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,25 +558,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5"/>
